--- a/Relazione/grafici.xlsx
+++ b/Relazione/grafici.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescomagarotto/Development/Algoritmi-Avanzati/Relazione/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algoritmi-Avanzati\Relazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFD70A0-1BA4-BC40-841C-CD9553B67AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321120C-5CC5-4BA2-BDB4-93937FA385A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="1" xr2:uid="{DDB9F065-D234-BE46-AFC7-AD61ACD45C34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{DDB9F065-D234-BE46-AFC7-AD61ACD45C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Prim" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,6 @@
     <sheet name="Kruskal" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Kruskal Union-Find'!$A$2:$A$69</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Kruskal Union-Find'!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Kruskal!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Kruskal!$B$2:$B$69</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Kruskal!$A$2:$A$69</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Kruskal!$B$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Kruskal!$B$2:$B$69</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Kruskal Union-Find'!$B$2:$B$69</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Kruskal!$A$2:$A$69</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Kruskal!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Kruskal!$B$2:$B$69</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Kruskal!$A$2:$A$69</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Kruskal!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Kruskal!$B$2:$B$69</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Kruskal!$A$2:$A$69</definedName>
     <definedName name="kruskal" localSheetId="2">Kruskal!$A$1:$C$69</definedName>
     <definedName name="prim" localSheetId="0">Prim!$A$1:$C$69</definedName>
     <definedName name="unionkruskal" localSheetId="1">'Kruskal Union-Find'!$A$1:$C$69</definedName>
@@ -45,9 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,7 +40,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{486AD139-1830-7D4F-BFCD-DB535D3E254D}" name="kruskal1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/francescomagarotto/Development/Algoritmi-Avanzati/kruskal.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/francescomagarotto/Development/Algoritmi-Avanzati/kruskal.csv" decimal="," thousands="." comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -66,7 +49,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{75155E07-1FB2-DC41-A69E-C77BD1806BA2}" name="prim" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/francescomagarotto/Development/Algoritmi-Avanzati/prim.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/francescomagarotto/Development/Algoritmi-Avanzati/prim.csv" decimal="," thousands="." comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -75,7 +58,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{2AF3DAD0-872A-8843-AB58-2AC56A1C682B}" name="unionkruskal" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/francescomagarotto/Development/Algoritmi-Avanzati/unionkruskal.csv" decimal="," thousands="." comma="1">
+    <textPr sourceFile="/Users/francescomagarotto/Development/Algoritmi-Avanzati/unionkruskal.csv" decimal="," thousands="." comma="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -102,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +95,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -160,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -172,6 +163,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -217,15 +210,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>Prim</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -249,9 +243,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
@@ -771,6 +765,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Numero nodi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -800,9 +849,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -836,6 +885,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Tempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -865,9 +969,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -916,8 +1020,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
+        <a:defRPr b="0">
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
@@ -926,7 +1031,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -959,13 +1064,13 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>Kruskal con Union-Find</a:t>
             </a:r>
           </a:p>
@@ -991,9 +1096,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
@@ -1511,6 +1616,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" baseline="0"/>
+                  <a:t> nodi</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1540,9 +1705,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -1576,6 +1741,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Tempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1605,9 +1825,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -1656,7 +1876,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="0">
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -1664,7 +1887,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1697,14 +1920,14 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Kruskal</a:t>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Algoritmi a confronto</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1729,9 +1952,1354 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Kruskal UF (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Kruskal Union-Find'!$A$2:$A$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Kruskal Union-Find'!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-595D-444E-A67B-C3211E60262C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tempo Prim (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Prim!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1137</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-595D-444E-A67B-C3211E60262C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Tempo Kruskal (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Kruskal!$B$2:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1731</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2637</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2563</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2638</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12976</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13009</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12427</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>81522</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81525</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>84400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81242</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>459713</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>549392</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>545050</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>526711</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>955113</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>925063</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>872704</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>869876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-595D-444E-A67B-C3211E60262C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1964614944"/>
+        <c:axId val="1917963184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1964614944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" baseline="0"/>
+                  <a:t>Numero nodi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917963184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1917963184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Tempo di esecuzione in %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1964614944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="0" u="none">
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Kruskal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
@@ -2249,6 +3817,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Numero nodi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2278,9 +3901,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -2314,6 +3937,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Tempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2343,9 +4021,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -2394,7 +4072,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="0">
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -2402,7 +4083,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2482,6 +4163,43 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -4085,6 +5803,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4095,10 +6329,10 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>230150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>37650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4130,16 +6364,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>150775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4164,6 +6398,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>776249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EB3F96-9241-404E-B520-B80E7B8B4DAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4174,13 +6446,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>139699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>820700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4517,20 +6789,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB1EE2F-A4DA-8B4E-AA2E-7C5243EEDFB9}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="7.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4541,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>10</v>
       </c>
@@ -4552,7 +6824,7 @@
         <v>29316</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>10</v>
       </c>
@@ -4563,7 +6835,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>10</v>
       </c>
@@ -4574,7 +6846,7 @@
         <v>-44765</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>10</v>
       </c>
@@ -4585,7 +6857,7 @@
         <v>20360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>20</v>
       </c>
@@ -4596,7 +6868,7 @@
         <v>-32021</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -4607,7 +6879,7 @@
         <v>18596</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>20</v>
       </c>
@@ -4618,7 +6890,7 @@
         <v>-42560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>20</v>
       </c>
@@ -4629,7 +6901,7 @@
         <v>-37205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>40</v>
       </c>
@@ -4639,8 +6911,9 @@
       <c r="C10" s="3">
         <v>-122078</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>40</v>
       </c>
@@ -4651,7 +6924,7 @@
         <v>-37021</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>40</v>
       </c>
@@ -4662,7 +6935,7 @@
         <v>-79570</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>40</v>
       </c>
@@ -4673,7 +6946,7 @@
         <v>-79741</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>80</v>
       </c>
@@ -4684,7 +6957,7 @@
         <v>-139926</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>80</v>
       </c>
@@ -4695,7 +6968,7 @@
         <v>-211345</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>80</v>
       </c>
@@ -4706,7 +6979,7 @@
         <v>-110571</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>80</v>
       </c>
@@ -4717,7 +6990,7 @@
         <v>-233320</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>100</v>
       </c>
@@ -4728,7 +7001,7 @@
         <v>-141960</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>100</v>
       </c>
@@ -4739,7 +7012,7 @@
         <v>-271743</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>100</v>
       </c>
@@ -4750,7 +7023,7 @@
         <v>-288906</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>100</v>
       </c>
@@ -4761,7 +7034,7 @@
         <v>-232178</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>200</v>
       </c>
@@ -4772,7 +7045,7 @@
         <v>-510185</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>200</v>
       </c>
@@ -4783,7 +7056,7 @@
         <v>-515136</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>200</v>
       </c>
@@ -4794,7 +7067,7 @@
         <v>-444357</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>200</v>
       </c>
@@ -4805,7 +7078,7 @@
         <v>-393278</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>400</v>
       </c>
@@ -4816,7 +7089,7 @@
         <v>-1122919</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>400</v>
       </c>
@@ -4827,7 +7100,7 @@
         <v>-788168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>400</v>
       </c>
@@ -4838,7 +7111,7 @@
         <v>-895704</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>400</v>
       </c>
@@ -4849,7 +7122,7 @@
         <v>-733645</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>800</v>
       </c>
@@ -4860,7 +7133,7 @@
         <v>-1541291</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>800</v>
       </c>
@@ -4871,7 +7144,7 @@
         <v>-1578294</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>800</v>
       </c>
@@ -4882,7 +7155,7 @@
         <v>-1675534</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>800</v>
       </c>
@@ -4893,7 +7166,7 @@
         <v>-1652119</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1000</v>
       </c>
@@ -4904,7 +7177,7 @@
         <v>-2091110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1000</v>
       </c>
@@ -4915,7 +7188,7 @@
         <v>-1934208</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1000</v>
       </c>
@@ -4926,7 +7199,7 @@
         <v>-2229428</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1000</v>
       </c>
@@ -4937,7 +7210,7 @@
         <v>-2359192</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2000</v>
       </c>
@@ -4948,7 +7221,7 @@
         <v>-4811598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2000</v>
       </c>
@@ -4959,7 +7232,7 @@
         <v>-4739387</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2000</v>
       </c>
@@ -4970,7 +7243,7 @@
         <v>-4717250</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2000</v>
       </c>
@@ -4981,7 +7254,7 @@
         <v>-4537267</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>4000</v>
       </c>
@@ -4992,7 +7265,7 @@
         <v>-8722212</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>4000</v>
       </c>
@@ -5003,7 +7276,7 @@
         <v>-9314968</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>4000</v>
       </c>
@@ -5014,7 +7287,7 @@
         <v>-9845767</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>4000</v>
       </c>
@@ -5025,7 +7298,7 @@
         <v>-8681447</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>8000</v>
       </c>
@@ -5036,7 +7309,7 @@
         <v>-17844628</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>8000</v>
       </c>
@@ -5047,7 +7320,7 @@
         <v>-18800966</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>8000</v>
       </c>
@@ -5058,7 +7331,7 @@
         <v>-18741474</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>8000</v>
       </c>
@@ -5069,7 +7342,7 @@
         <v>-18190442</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>10000</v>
       </c>
@@ -5080,7 +7353,7 @@
         <v>-22086729</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>10000</v>
       </c>
@@ -5091,7 +7364,7 @@
         <v>-22338561</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>10000</v>
       </c>
@@ -5102,7 +7375,7 @@
         <v>-22581384</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>10000</v>
       </c>
@@ -5113,7 +7386,7 @@
         <v>-22606313</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>20000</v>
       </c>
@@ -5124,7 +7397,7 @@
         <v>-45978687</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>20000</v>
       </c>
@@ -5135,7 +7408,7 @@
         <v>-45195405</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>20000</v>
       </c>
@@ -5146,7 +7419,7 @@
         <v>-47854708</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>20000</v>
       </c>
@@ -5157,7 +7430,7 @@
         <v>-46420311</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>40000</v>
       </c>
@@ -5168,7 +7441,7 @@
         <v>-92003321</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>40000</v>
       </c>
@@ -5179,7 +7452,7 @@
         <v>-94397064</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>40000</v>
       </c>
@@ -5190,7 +7463,7 @@
         <v>-88783643</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>40000</v>
       </c>
@@ -5201,7 +7474,7 @@
         <v>-93017025</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>80000</v>
       </c>
@@ -5212,7 +7485,7 @@
         <v>-186834082</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>80000</v>
       </c>
@@ -5223,7 +7496,7 @@
         <v>-185997521</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>80000</v>
       </c>
@@ -5234,7 +7507,7 @@
         <v>-182065015</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>80000</v>
       </c>
@@ -5245,7 +7518,7 @@
         <v>-180803872</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>100000</v>
       </c>
@@ -5256,7 +7529,7 @@
         <v>-230698391</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>100000</v>
       </c>
@@ -5267,7 +7540,7 @@
         <v>-230168572</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>100000</v>
       </c>
@@ -5278,7 +7551,7 @@
         <v>-231393935</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>100000</v>
       </c>
@@ -5297,19 +7570,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB48406B-403F-7948-A64C-7034AE57827E}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5320,7 +7593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -5331,7 +7604,7 @@
         <v>29316</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -5342,7 +7615,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -5353,7 +7626,7 @@
         <v>-44765</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -5364,7 +7637,7 @@
         <v>20360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -5374,8 +7647,9 @@
       <c r="C6">
         <v>-32021</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -5385,8 +7659,9 @@
       <c r="C7">
         <v>18596</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -5397,7 +7672,7 @@
         <v>-42560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -5408,7 +7683,7 @@
         <v>-37205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -5419,7 +7694,7 @@
         <v>-122078</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
@@ -5430,7 +7705,7 @@
         <v>-37021</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>40</v>
       </c>
@@ -5441,7 +7716,7 @@
         <v>-79570</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40</v>
       </c>
@@ -5452,7 +7727,7 @@
         <v>-79741</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>80</v>
       </c>
@@ -5463,7 +7738,7 @@
         <v>-139926</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>80</v>
       </c>
@@ -5474,7 +7749,7 @@
         <v>-211345</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>80</v>
       </c>
@@ -5485,7 +7760,7 @@
         <v>-110571</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80</v>
       </c>
@@ -5496,7 +7771,7 @@
         <v>-233320</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>100</v>
       </c>
@@ -5507,7 +7782,7 @@
         <v>-141960</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>100</v>
       </c>
@@ -5518,7 +7793,7 @@
         <v>-271743</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100</v>
       </c>
@@ -5529,7 +7804,7 @@
         <v>-288906</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -5540,7 +7815,7 @@
         <v>-232178</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
@@ -5551,7 +7826,7 @@
         <v>-510185</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200</v>
       </c>
@@ -5562,7 +7837,7 @@
         <v>-515136</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>200</v>
       </c>
@@ -5573,7 +7848,7 @@
         <v>-444357</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>200</v>
       </c>
@@ -5584,7 +7859,7 @@
         <v>-393278</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>400</v>
       </c>
@@ -5595,7 +7870,7 @@
         <v>-1122919</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>400</v>
       </c>
@@ -5606,7 +7881,7 @@
         <v>-788168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>400</v>
       </c>
@@ -5617,7 +7892,7 @@
         <v>-895704</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>400</v>
       </c>
@@ -5628,7 +7903,7 @@
         <v>-733645</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>800</v>
       </c>
@@ -5639,7 +7914,7 @@
         <v>-1541291</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>800</v>
       </c>
@@ -5650,7 +7925,7 @@
         <v>-1578294</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>800</v>
       </c>
@@ -5661,7 +7936,7 @@
         <v>-1675534</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>800</v>
       </c>
@@ -5672,7 +7947,7 @@
         <v>-1652119</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -5683,7 +7958,7 @@
         <v>-2091110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -5694,7 +7969,7 @@
         <v>-1934208</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1000</v>
       </c>
@@ -5705,7 +7980,7 @@
         <v>-2229428</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1000</v>
       </c>
@@ -5716,7 +7991,7 @@
         <v>-2359192</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2000</v>
       </c>
@@ -5727,7 +8002,7 @@
         <v>-4811598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2000</v>
       </c>
@@ -5738,7 +8013,7 @@
         <v>-4739387</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2000</v>
       </c>
@@ -5749,7 +8024,7 @@
         <v>-4717250</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2000</v>
       </c>
@@ -5760,7 +8035,7 @@
         <v>-4537267</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -5771,7 +8046,7 @@
         <v>-8722212</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4000</v>
       </c>
@@ -5782,7 +8057,7 @@
         <v>-9314968</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4000</v>
       </c>
@@ -5793,7 +8068,7 @@
         <v>-9845767</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4000</v>
       </c>
@@ -5804,7 +8079,7 @@
         <v>-8681447</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8000</v>
       </c>
@@ -5815,7 +8090,7 @@
         <v>-17844628</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8000</v>
       </c>
@@ -5826,7 +8101,7 @@
         <v>-18800966</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8000</v>
       </c>
@@ -5837,7 +8112,7 @@
         <v>-18741474</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8000</v>
       </c>
@@ -5848,7 +8123,7 @@
         <v>-18190442</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10000</v>
       </c>
@@ -5859,7 +8134,7 @@
         <v>-22086729</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10000</v>
       </c>
@@ -5870,7 +8145,7 @@
         <v>-22338561</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10000</v>
       </c>
@@ -5881,7 +8156,7 @@
         <v>-22581384</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10000</v>
       </c>
@@ -5892,7 +8167,7 @@
         <v>-22606313</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20000</v>
       </c>
@@ -5903,7 +8178,7 @@
         <v>-45978687</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20000</v>
       </c>
@@ -5914,7 +8189,7 @@
         <v>-45195405</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20000</v>
       </c>
@@ -5925,7 +8200,7 @@
         <v>-47854708</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20000</v>
       </c>
@@ -5936,7 +8211,7 @@
         <v>-46420311</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>40000</v>
       </c>
@@ -5947,7 +8222,7 @@
         <v>-92003321</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>40000</v>
       </c>
@@ -5958,7 +8233,7 @@
         <v>-94397064</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>40000</v>
       </c>
@@ -5969,7 +8244,7 @@
         <v>-88783643</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>40000</v>
       </c>
@@ -5980,7 +8255,7 @@
         <v>-93017025</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>80000</v>
       </c>
@@ -5991,7 +8266,7 @@
         <v>-186834082</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>80000</v>
       </c>
@@ -6002,7 +8277,7 @@
         <v>-185997521</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>80000</v>
       </c>
@@ -6013,7 +8288,7 @@
         <v>-182065015</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>80000</v>
       </c>
@@ -6024,7 +8299,7 @@
         <v>-180803872</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>100000</v>
       </c>
@@ -6035,7 +8310,7 @@
         <v>-230698391</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>100000</v>
       </c>
@@ -6046,7 +8321,7 @@
         <v>-230168572</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>100000</v>
       </c>
@@ -6057,7 +8332,7 @@
         <v>-231393935</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>100000</v>
       </c>
@@ -6070,25 +8345,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462774C1-6DD2-8842-8F32-5F00F7F7F5B8}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6099,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6110,7 +8386,7 @@
         <v>29316</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -6121,7 +8397,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -6132,7 +8408,7 @@
         <v>-44765</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -6143,7 +8419,7 @@
         <v>20360</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -6154,7 +8430,7 @@
         <v>-32021</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -6165,7 +8441,7 @@
         <v>18596</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
@@ -6176,7 +8452,7 @@
         <v>-42560</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -6187,7 +8463,7 @@
         <v>-37205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -6198,7 +8474,7 @@
         <v>-122078</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
@@ -6209,7 +8485,7 @@
         <v>-37021</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>40</v>
       </c>
@@ -6220,7 +8496,7 @@
         <v>-79570</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>40</v>
       </c>
@@ -6230,8 +8506,9 @@
       <c r="C13">
         <v>-79741</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>80</v>
       </c>
@@ -6242,7 +8519,7 @@
         <v>-139926</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>80</v>
       </c>
@@ -6253,7 +8530,7 @@
         <v>-211345</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>80</v>
       </c>
@@ -6264,7 +8541,7 @@
         <v>-110571</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80</v>
       </c>
@@ -6275,7 +8552,7 @@
         <v>-233320</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>100</v>
       </c>
@@ -6286,7 +8563,7 @@
         <v>-141960</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>100</v>
       </c>
@@ -6297,7 +8574,7 @@
         <v>-271743</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100</v>
       </c>
@@ -6308,7 +8585,7 @@
         <v>-288906</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -6319,7 +8596,7 @@
         <v>-232178</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
@@ -6330,7 +8607,7 @@
         <v>-510185</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200</v>
       </c>
@@ -6341,7 +8618,7 @@
         <v>-515136</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>200</v>
       </c>
@@ -6352,7 +8629,7 @@
         <v>-444357</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>200</v>
       </c>
@@ -6363,7 +8640,7 @@
         <v>-393278</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>400</v>
       </c>
@@ -6374,7 +8651,7 @@
         <v>-1122919</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>400</v>
       </c>
@@ -6385,7 +8662,7 @@
         <v>-788168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>400</v>
       </c>
@@ -6396,7 +8673,7 @@
         <v>-895704</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>400</v>
       </c>
@@ -6407,7 +8684,7 @@
         <v>-733645</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>800</v>
       </c>
@@ -6417,8 +8694,9 @@
       <c r="C30">
         <v>-1541291</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>800</v>
       </c>
@@ -6429,7 +8707,7 @@
         <v>-1578294</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>800</v>
       </c>
@@ -6440,7 +8718,7 @@
         <v>-1675534</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>800</v>
       </c>
@@ -6451,7 +8729,7 @@
         <v>-1652119</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -6462,7 +8740,7 @@
         <v>-2091110</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -6473,7 +8751,7 @@
         <v>-1934208</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1000</v>
       </c>
@@ -6484,7 +8762,7 @@
         <v>-2229428</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1000</v>
       </c>
@@ -6495,7 +8773,7 @@
         <v>-2359192</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2000</v>
       </c>
@@ -6506,7 +8784,7 @@
         <v>-4811598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2000</v>
       </c>
@@ -6517,7 +8795,7 @@
         <v>-4739387</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2000</v>
       </c>
@@ -6528,7 +8806,7 @@
         <v>-4717250</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2000</v>
       </c>
@@ -6539,7 +8817,7 @@
         <v>-4537267</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -6550,7 +8828,7 @@
         <v>-8722212</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4000</v>
       </c>
@@ -6561,7 +8839,7 @@
         <v>-9314968</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4000</v>
       </c>
@@ -6572,7 +8850,7 @@
         <v>-9845767</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4000</v>
       </c>
@@ -6583,7 +8861,7 @@
         <v>-8681447</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8000</v>
       </c>
@@ -6594,7 +8872,7 @@
         <v>-17844628</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8000</v>
       </c>
@@ -6605,7 +8883,7 @@
         <v>-18800966</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8000</v>
       </c>
@@ -6616,7 +8894,7 @@
         <v>-18741474</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8000</v>
       </c>
@@ -6627,7 +8905,7 @@
         <v>-18190442</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10000</v>
       </c>
@@ -6638,7 +8916,7 @@
         <v>-22086729</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10000</v>
       </c>
@@ -6649,7 +8927,7 @@
         <v>-22338561</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10000</v>
       </c>
@@ -6660,7 +8938,7 @@
         <v>-22581384</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10000</v>
       </c>
@@ -6671,7 +8949,7 @@
         <v>-22606313</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20000</v>
       </c>
@@ -6682,7 +8960,7 @@
         <v>-45978687</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20000</v>
       </c>
@@ -6693,7 +8971,7 @@
         <v>-45195405</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20000</v>
       </c>
@@ -6704,7 +8982,7 @@
         <v>-47854708</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20000</v>
       </c>
@@ -6715,7 +8993,7 @@
         <v>-46420311</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>40000</v>
       </c>
@@ -6726,7 +9004,7 @@
         <v>-92003321</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>40000</v>
       </c>
@@ -6737,7 +9015,7 @@
         <v>-94397064</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>40000</v>
       </c>
@@ -6748,7 +9026,7 @@
         <v>-88783643</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>40000</v>
       </c>
@@ -6759,7 +9037,7 @@
         <v>-93017025</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>80000</v>
       </c>
@@ -6770,7 +9048,7 @@
         <v>-186834082</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>80000</v>
       </c>
@@ -6781,7 +9059,7 @@
         <v>-185997521</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>80000</v>
       </c>
@@ -6792,7 +9070,7 @@
         <v>-182065015</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>80000</v>
       </c>
@@ -6803,7 +9081,7 @@
         <v>-180803872</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>100000</v>
       </c>
@@ -6814,7 +9092,7 @@
         <v>-230698391</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>100000</v>
       </c>
@@ -6825,7 +9103,7 @@
         <v>-230168572</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>100000</v>
       </c>
@@ -6836,7 +9114,7 @@
         <v>-231393935</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>100000</v>
       </c>

--- a/Relazione/grafici.xlsx
+++ b/Relazione/grafici.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algoritmi-Avanzati\Relazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D321120C-5CC5-4BA2-BDB4-93937FA385A7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C9DF9-7836-4950-98F5-D76B542207CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{DDB9F065-D234-BE46-AFC7-AD61ACD45C34}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{DDB9F065-D234-BE46-AFC7-AD61ACD45C34}"/>
   </bookViews>
   <sheets>
     <sheet name="Prim" sheetId="1" r:id="rId1"/>
     <sheet name="Kruskal Union-Find" sheetId="2" r:id="rId2"/>
     <sheet name="Kruskal" sheetId="3" r:id="rId3"/>
+    <sheet name="Medie" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="kruskal" localSheetId="2">Kruskal!$A$1:$C$69</definedName>
     <definedName name="prim" localSheetId="0">Prim!$A$1:$C$69</definedName>
     <definedName name="unionkruskal" localSheetId="1">'Kruskal Union-Find'!$A$1:$C$69</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>Nodi</t>
   </si>
@@ -79,6 +80,15 @@
   </si>
   <si>
     <t>Tempo (ms)</t>
+  </si>
+  <si>
+    <t>Prim</t>
+  </si>
+  <si>
+    <t>Kruskal UF</t>
+  </si>
+  <si>
+    <t>Kruskal</t>
   </si>
 </sst>
 </file>
@@ -151,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,6 +175,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2931,7 +2943,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4088,6 +4099,791 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Prim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Medie!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Medie!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>695.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1092.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2B2-4E39-9A77-80BA2601162E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kruskal UF</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Medie!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Medie!$C$2:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2B2-4E39-9A77-80BA2601162E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Kruskal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Medie!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Medie!$D$2:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>427.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1729.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2609.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12853.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82172.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>520216.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>905689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2B2-4E39-9A77-80BA2601162E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="44598527"/>
+        <c:axId val="43004991"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44598527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43004991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43004991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44598527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -4236,6 +5032,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
   <cs:axisTitle>
@@ -5804,6 +6640,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6460,6 +7812,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2B9296-E8ED-9147-AC78-21D9F5E91236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C886A81-23E1-4E7A-AAFB-CA26736FB65A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6791,8 +8184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB1EE2F-A4DA-8B4E-AA2E-7C5243EEDFB9}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="N79" sqref="N79:O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7572,8 +8965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB48406B-403F-7948-A64C-7034AE57827E}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8354,8 +9747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462774C1-6DD2-8842-8F32-5F00F7F7F5B8}">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8541,7 +9934,7 @@
         <v>-110571</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80</v>
       </c>
@@ -8552,7 +9945,7 @@
         <v>-233320</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>100</v>
       </c>
@@ -8563,7 +9956,7 @@
         <v>-141960</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>100</v>
       </c>
@@ -8574,7 +9967,7 @@
         <v>-271743</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100</v>
       </c>
@@ -8585,7 +9978,7 @@
         <v>-288906</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>100</v>
       </c>
@@ -8596,7 +9989,7 @@
         <v>-232178</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
@@ -8607,7 +10000,7 @@
         <v>-510185</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>200</v>
       </c>
@@ -8618,7 +10011,7 @@
         <v>-515136</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>200</v>
       </c>
@@ -8629,7 +10022,7 @@
         <v>-444357</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>200</v>
       </c>
@@ -8640,7 +10033,7 @@
         <v>-393278</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>400</v>
       </c>
@@ -8651,7 +10044,7 @@
         <v>-1122919</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>400</v>
       </c>
@@ -8662,7 +10055,7 @@
         <v>-788168</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>400</v>
       </c>
@@ -8673,7 +10066,7 @@
         <v>-895704</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>400</v>
       </c>
@@ -8684,7 +10077,7 @@
         <v>-733645</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>800</v>
       </c>
@@ -8696,7 +10089,7 @@
       </c>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>800</v>
       </c>
@@ -8706,8 +10099,11 @@
       <c r="C31">
         <v>-1578294</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>800</v>
       </c>
@@ -8717,8 +10113,11 @@
       <c r="C32">
         <v>-1675534</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J32" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>800</v>
       </c>
@@ -8728,8 +10127,11 @@
       <c r="C33">
         <v>-1652119</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J33" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1000</v>
       </c>
@@ -8739,8 +10141,11 @@
       <c r="C34">
         <v>-2091110</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J34" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1000</v>
       </c>
@@ -8750,8 +10155,11 @@
       <c r="C35">
         <v>-1934208</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J35" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1000</v>
       </c>
@@ -8761,8 +10169,11 @@
       <c r="C36">
         <v>-2229428</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J36" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1000</v>
       </c>
@@ -8772,8 +10183,11 @@
       <c r="C37">
         <v>-2359192</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J37" s="7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2000</v>
       </c>
@@ -8783,8 +10197,11 @@
       <c r="C38">
         <v>-4811598</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J38" s="7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2000</v>
       </c>
@@ -8794,8 +10211,11 @@
       <c r="C39">
         <v>-4739387</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J39" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2000</v>
       </c>
@@ -8805,8 +10225,11 @@
       <c r="C40">
         <v>-4717250</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J40" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2000</v>
       </c>
@@ -8816,8 +10239,11 @@
       <c r="C41">
         <v>-4537267</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J41" s="7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4000</v>
       </c>
@@ -8827,8 +10253,11 @@
       <c r="C42">
         <v>-8722212</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J42" s="7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4000</v>
       </c>
@@ -8838,8 +10267,11 @@
       <c r="C43">
         <v>-9314968</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J43" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4000</v>
       </c>
@@ -8849,8 +10281,11 @@
       <c r="C44">
         <v>-9845767</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J44" s="7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4000</v>
       </c>
@@ -8860,8 +10295,11 @@
       <c r="C45">
         <v>-8681447</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J45" s="7">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8000</v>
       </c>
@@ -8871,8 +10309,11 @@
       <c r="C46">
         <v>-17844628</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J46" s="7">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8000</v>
       </c>
@@ -8882,8 +10323,11 @@
       <c r="C47">
         <v>-18800966</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J47" s="7">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8000</v>
       </c>
@@ -9129,4 +10573,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172D2086-63C8-4A75-9B95-F8D3E0C0BB2D}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <f>AVERAGEIF(Prim!A2:A69,A2,Prim!B2:B69)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A2:A69,Kruskal!J31,'Kruskal Union-Find'!B2:B69)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <f>AVERAGEIF(Kruskal!A2:A69,Kruskal!J31,Kruskal!B2:B69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8">
+        <f>AVERAGEIF(Prim!A3:A70,A3,Prim!B3:B70)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A3:A70,Kruskal!J32,'Kruskal Union-Find'!B3:B70)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <f>AVERAGEIF(Kruskal!A3:A70,Kruskal!J32,Kruskal!B3:B70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8">
+        <f>AVERAGEIF(Prim!A4:A71,A4,Prim!B4:B71)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A4:A71,Kruskal!J33,'Kruskal Union-Find'!B4:B71)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <f>AVERAGEIF(Kruskal!A4:A71,Kruskal!J33,Kruskal!B4:B71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>80</v>
+      </c>
+      <c r="B5" s="8">
+        <f>AVERAGEIF(Prim!A5:A72,A5,Prim!B5:B72)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A5:A72,Kruskal!J34,'Kruskal Union-Find'!B5:B72)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <f>AVERAGEIF(Kruskal!A5:A72,Kruskal!J34,Kruskal!B5:B72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>100</v>
+      </c>
+      <c r="B6" s="8">
+        <f>AVERAGEIF(Prim!A6:A73,A6,Prim!B6:B73)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A6:A73,Kruskal!J35,'Kruskal Union-Find'!B6:B73)</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <f>AVERAGEIF(Kruskal!A6:A73,Kruskal!J35,Kruskal!B6:B73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>200</v>
+      </c>
+      <c r="B7" s="8">
+        <f>AVERAGEIF(Prim!A7:A74,A7,Prim!B7:B74)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A7:A74,Kruskal!J36,'Kruskal Union-Find'!B7:B74)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <f>AVERAGEIF(Kruskal!A7:A74,Kruskal!J36,Kruskal!B7:B74)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>400</v>
+      </c>
+      <c r="B8" s="8">
+        <f>AVERAGEIF(Prim!A8:A75,A8,Prim!B8:B75)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A8:A75,Kruskal!J37,'Kruskal Union-Find'!B8:B75)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <f>AVERAGEIF(Kruskal!A8:A75,Kruskal!J37,Kruskal!B8:B75)</f>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>800</v>
+      </c>
+      <c r="B9" s="8">
+        <f>AVERAGEIF(Prim!A9:A76,A9,Prim!B9:B76)</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A9:A76,Kruskal!J38,'Kruskal Union-Find'!B9:B76)</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="6">
+        <f>AVERAGEIF(Kruskal!A9:A76,Kruskal!J38,Kruskal!B9:B76)</f>
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="8">
+        <f>AVERAGEIF(Prim!A10:A77,A10,Prim!B10:B77)</f>
+        <v>3.75</v>
+      </c>
+      <c r="C10" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A10:A77,Kruskal!J39,'Kruskal Union-Find'!B10:B77)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <f>AVERAGEIF(Kruskal!A10:A77,Kruskal!J39,Kruskal!B10:B77)</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="8">
+        <f>AVERAGEIF(Prim!A11:A78,A11,Prim!B11:B78)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A11:A78,Kruskal!J40,'Kruskal Union-Find'!B11:B78)</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <f>AVERAGEIF(Kruskal!A11:A78,Kruskal!J40,Kruskal!B11:B78)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>4000</v>
+      </c>
+      <c r="B12" s="8">
+        <f>AVERAGEIF(Prim!A12:A79,A12,Prim!B12:B79)</f>
+        <v>7.75</v>
+      </c>
+      <c r="C12" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A12:A79,Kruskal!J41,'Kruskal Union-Find'!B12:B79)</f>
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
+        <f>AVERAGEIF(Kruskal!A12:A79,Kruskal!J41,Kruskal!B12:B79)</f>
+        <v>427.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>8000</v>
+      </c>
+      <c r="B13" s="8">
+        <f>AVERAGEIF(Prim!A13:A80,A13,Prim!B13:B80)</f>
+        <v>15.75</v>
+      </c>
+      <c r="C13" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A13:A80,Kruskal!J42,'Kruskal Union-Find'!B13:B80)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D13" s="6">
+        <f>AVERAGEIF(Kruskal!A13:A80,Kruskal!J42,Kruskal!B13:B80)</f>
+        <v>1729.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B14" s="8">
+        <f>AVERAGEIF(Prim!A14:A81,A14,Prim!B14:B81)</f>
+        <v>19.5</v>
+      </c>
+      <c r="C14" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A14:A81,Kruskal!J43,'Kruskal Union-Find'!B14:B81)</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="6">
+        <f>AVERAGEIF(Kruskal!A14:A81,Kruskal!J43,Kruskal!B14:B81)</f>
+        <v>2609.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B15" s="8">
+        <f>AVERAGEIF(Prim!A15:A82,A15,Prim!B15:B82)</f>
+        <v>63.25</v>
+      </c>
+      <c r="C15" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A15:A82,Kruskal!J44,'Kruskal Union-Find'!B15:B82)</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <f>AVERAGEIF(Kruskal!A15:A82,Kruskal!J44,Kruskal!B15:B82)</f>
+        <v>12853.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>40000</v>
+      </c>
+      <c r="B16" s="8">
+        <f>AVERAGEIF(Prim!A16:A83,A16,Prim!B16:B83)</f>
+        <v>196</v>
+      </c>
+      <c r="C16" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A16:A83,Kruskal!J45,'Kruskal Union-Find'!B16:B83)</f>
+        <v>16.25</v>
+      </c>
+      <c r="D16" s="6">
+        <f>AVERAGEIF(Kruskal!A16:A83,Kruskal!J45,Kruskal!B16:B83)</f>
+        <v>82172.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>80000</v>
+      </c>
+      <c r="B17" s="8">
+        <f>AVERAGEIF(Prim!A17:A84,A17,Prim!B17:B84)</f>
+        <v>695.25</v>
+      </c>
+      <c r="C17" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A17:A84,Kruskal!J46,'Kruskal Union-Find'!B17:B84)</f>
+        <v>42</v>
+      </c>
+      <c r="D17" s="6">
+        <f>AVERAGEIF(Kruskal!A17:A84,Kruskal!J46,Kruskal!B17:B84)</f>
+        <v>520216.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>100000</v>
+      </c>
+      <c r="B18" s="8">
+        <f>AVERAGEIF(Prim!A18:A85,A18,Prim!B18:B85)</f>
+        <v>1092.25</v>
+      </c>
+      <c r="C18" s="6">
+        <f>AVERAGEIF('Kruskal Union-Find'!A18:A85,Kruskal!J47,'Kruskal Union-Find'!B18:B85)</f>
+        <v>73.5</v>
+      </c>
+      <c r="D18" s="6">
+        <f>AVERAGEIF(Kruskal!A18:A85,Kruskal!J47,Kruskal!B18:B85)</f>
+        <v>905689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Relazione/grafici.xlsx
+++ b/Relazione/grafici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algoritmi-Avanzati\Relazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88C9DF9-7836-4950-98F5-D76B542207CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93204258-3971-4156-AB67-385F3A192EC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{DDB9F065-D234-BE46-AFC7-AD61ACD45C34}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Nodi</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Kruskal</t>
+  </si>
+  <si>
+    <t>PrimRispetto a kruskal UF</t>
+  </si>
+  <si>
+    <t>Kruskal rispetto a Kruskal Uf</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4884,6 +4891,1112 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Prim vs Kruskal con Union-Find</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Numero di grafi elaborati da Prim</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Medie!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Medie!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.90625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.061538461538461</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.553571428571427</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.860544217687075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-A495-4946-88E5-BB755FF2D4DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="916616703"/>
+        <c:axId val="1002532287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="916616703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1100"/>
+                  <a:t>Numero nodi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002532287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1002532287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1100"/>
+                  <a:t>Numero grafi</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1100" baseline="0"/>
+                  <a:t> elaborati</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1100"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="916616703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Kruskal Naive vs Kruskal con Union-Find</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Numero di grafi elaborati da Kruskal Naive</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Medie!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Medie!$G$2:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.9375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>230.63333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>652.4375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1606.6875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5056.7538461538461</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12386.107142857143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12322.299319727892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AAC-4ABC-B943-6FE2D3853351}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-25"/>
+        <c:axId val="916616703"/>
+        <c:axId val="1002532287"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="916616703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Numero nodi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002532287"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1002532287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>Numero grafi</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" baseline="0"/>
+                  <a:t> elaborati</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="916616703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -5072,6 +6185,52 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
   <cs:axisTitle>
@@ -7652,6 +8811,1012 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -7836,16 +10001,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>433387</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7865,6 +10030,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>32662</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160610</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA010FC1-72A7-4123-8A3D-89FE499486D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2447924</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>79650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3400050-9CDA-4597-82A3-686FB93A4EF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8965,7 +11204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB48406B-403F-7948-A64C-7034AE57827E}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L45" sqref="L45:L61"/>
     </sheetView>
   </sheetViews>
@@ -10577,15 +12816,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172D2086-63C8-4A75-9B95-F8D3E0C0BB2D}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="32.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -10598,8 +12841,14 @@
       <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>10</v>
       </c>
@@ -10615,8 +12864,16 @@
         <f>AVERAGEIF(Kruskal!A2:A69,Kruskal!J31,Kruskal!B2:B69)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" s="9">
+        <f>IF(C2=0, B2/1,B2/C2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <f>IF(C2=0, D2/1,D2/C2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>20</v>
       </c>
@@ -10632,8 +12889,16 @@
         <f>AVERAGEIF(Kruskal!A3:A70,Kruskal!J32,Kruskal!B3:B70)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F19" si="0">IF(C3=0, B3/1,B3/C3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G18" si="1">IF(C3=0, D3/1,D3/C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>40</v>
       </c>
@@ -10649,8 +12914,16 @@
         <f>AVERAGEIF(Kruskal!A4:A71,Kruskal!J33,Kruskal!B4:B71)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>80</v>
       </c>
@@ -10666,8 +12939,16 @@
         <f>AVERAGEIF(Kruskal!A5:A72,Kruskal!J34,Kruskal!B5:B72)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>100</v>
       </c>
@@ -10683,8 +12964,16 @@
         <f>AVERAGEIF(Kruskal!A6:A73,Kruskal!J35,Kruskal!B6:B73)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>200</v>
       </c>
@@ -10700,8 +12989,16 @@
         <f>AVERAGEIF(Kruskal!A7:A74,Kruskal!J36,Kruskal!B7:B74)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>400</v>
       </c>
@@ -10717,8 +13014,16 @@
         <f>AVERAGEIF(Kruskal!A8:A75,Kruskal!J37,Kruskal!B8:B75)</f>
         <v>7.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>800</v>
       </c>
@@ -10734,8 +13039,16 @@
         <f>AVERAGEIF(Kruskal!A9:A76,Kruskal!J38,Kruskal!B9:B76)</f>
         <v>27.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>6.8125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1000</v>
       </c>
@@ -10751,8 +13064,16 @@
         <f>AVERAGEIF(Kruskal!A10:A77,Kruskal!J39,Kruskal!B10:B77)</f>
         <v>31.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2000</v>
       </c>
@@ -10768,8 +13089,16 @@
         <f>AVERAGEIF(Kruskal!A11:A78,Kruskal!J40,Kruskal!B11:B78)</f>
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="1"/>
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4000</v>
       </c>
@@ -10785,8 +13114,16 @@
         <f>AVERAGEIF(Kruskal!A12:A79,Kruskal!J41,Kruskal!B12:B79)</f>
         <v>427.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9375</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="1"/>
+        <v>106.9375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>8000</v>
       </c>
@@ -10802,8 +13139,16 @@
         <f>AVERAGEIF(Kruskal!A13:A80,Kruskal!J42,Kruskal!B13:B80)</f>
         <v>1729.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="1"/>
+        <v>230.63333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>10000</v>
       </c>
@@ -10819,8 +13164,16 @@
         <f>AVERAGEIF(Kruskal!A14:A81,Kruskal!J43,Kruskal!B14:B81)</f>
         <v>2609.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>4.875</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="1"/>
+        <v>652.4375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>20000</v>
       </c>
@@ -10836,8 +13189,16 @@
         <f>AVERAGEIF(Kruskal!A15:A82,Kruskal!J44,Kruskal!B15:B82)</f>
         <v>12853.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>7.90625</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="1"/>
+        <v>1606.6875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>40000</v>
       </c>
@@ -10853,8 +13214,16 @@
         <f>AVERAGEIF(Kruskal!A16:A83,Kruskal!J45,Kruskal!B16:B83)</f>
         <v>82172.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="9">
+        <f>IF(C16=0, B16/1,B16/C16)</f>
+        <v>12.061538461538461</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>5056.7538461538461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>80000</v>
       </c>
@@ -10870,8 +13239,16 @@
         <f>AVERAGEIF(Kruskal!A17:A84,Kruskal!J46,Kruskal!B17:B84)</f>
         <v>520216.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>16.553571428571427</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="1"/>
+        <v>12386.107142857143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>100000</v>
       </c>
@@ -10887,10 +13264,18 @@
         <f>AVERAGEIF(Kruskal!A18:A85,Kruskal!J47,Kruskal!B18:B85)</f>
         <v>905689</v>
       </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>14.860544217687075</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>12322.299319727892</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Relazione/grafici.xlsx
+++ b/Relazione/grafici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algoritmi-Avanzati\Relazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93204258-3971-4156-AB67-385F3A192EC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF391D1-D546-4982-8382-77F74CD48379}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{DDB9F065-D234-BE46-AFC7-AD61ACD45C34}"/>
   </bookViews>
@@ -4971,7 +4971,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Numero di grafi elaborati da Prim</c:v>
+            <c:v>Numero di grafi elaborati da Kruskal</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -5366,37 +5366,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5524,7 +5493,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Numero di grafi elaborati da Kruskal Naive</c:v>
+            <c:v>Numero di grafi elaborati da Kruskal UF</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -5545,7 +5514,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5564,6 +5535,7 @@
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5718,6 +5690,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -5919,37 +5892,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Helvetica" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -12818,8 +12760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172D2086-63C8-4A75-9B95-F8D3E0C0BB2D}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12890,7 +12832,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F19" si="0">IF(C3=0, B3/1,B3/C3)</f>
+        <f t="shared" ref="F3:F18" si="0">IF(C3=0, B3/1,B3/C3)</f>
         <v>0</v>
       </c>
       <c r="G3" s="9">
